--- a/PenTestTools.xlsx
+++ b/PenTestTools.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr-R3b00t\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr-R3b00t\Documents\GitHub\PenTestTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A49E747-132D-402D-80F0-2B6BAF7F86A1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822FD2D5-B3B1-4648-89EA-7FA54AB7322F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{8D44ABE3-9518-4A2E-9512-97C37771C12F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{8D44ABE3-9518-4A2E-9512-97C37771C12F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tools" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="259">
   <si>
     <t>Tools</t>
   </si>
@@ -799,6 +799,15 @@
   </si>
   <si>
     <t>Vulnerable JS component scanner (include BURP and ZAP extentions)</t>
+  </si>
+  <si>
+    <t>https://github.com/trustedsec/unicorn</t>
+  </si>
+  <si>
+    <t>Unicorn</t>
+  </si>
+  <si>
+    <t>Unicorn is a simple tool for using a PowerShell downgrade attack and inject shellcode straight into memory</t>
   </si>
 </sst>
 </file>
@@ -879,7 +888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -896,6 +905,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1211,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C12766-7668-469B-8FA5-FC911C82C6D8}">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="E127" sqref="E126:E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2754,6 +2766,23 @@
       </c>
       <c r="E124" s="5" t="s">
         <v>255</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2808,6 +2837,7 @@
     <hyperlink ref="D122" r:id="rId48" xr:uid="{D76D0B50-05D2-465B-97FA-ECFBD763FB71}"/>
     <hyperlink ref="D123" r:id="rId49" xr:uid="{0A42E137-0203-4FB3-8DB1-4F84168773BE}"/>
     <hyperlink ref="D124" r:id="rId50" xr:uid="{40BEE53C-DE38-4343-BB74-B911C04B2A9D}"/>
+    <hyperlink ref="D125" r:id="rId51" xr:uid="{E57BB641-C99E-4BB0-83B2-F27A0D920A58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PenTestTools.xlsx
+++ b/PenTestTools.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr-R3b00t\Documents\GitHub\PenTestTools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MrR3b00t\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822FD2D5-B3B1-4648-89EA-7FA54AB7322F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F8B217-7C17-4A64-B5F4-88F9A532074B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{8D44ABE3-9518-4A2E-9512-97C37771C12F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="263">
   <si>
     <t>Tools</t>
   </si>
@@ -808,6 +808,18 @@
   </si>
   <si>
     <t>Unicorn is a simple tool for using a PowerShell downgrade attack and inject shellcode straight into memory</t>
+  </si>
+  <si>
+    <t>Bash</t>
+  </si>
+  <si>
+    <t>https://github.com/diego-treitos/linux-smart-enumeration</t>
+  </si>
+  <si>
+    <t>Linus Smart Enumeration</t>
+  </si>
+  <si>
+    <t>Local privildge auditor</t>
   </si>
 </sst>
 </file>
@@ -1223,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C12766-7668-469B-8FA5-FC911C82C6D8}">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="E127" sqref="E126:E127"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2783,6 +2795,23 @@
       </c>
       <c r="E125" s="5" t="s">
         <v>258</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2838,6 +2867,7 @@
     <hyperlink ref="D123" r:id="rId49" xr:uid="{0A42E137-0203-4FB3-8DB1-4F84168773BE}"/>
     <hyperlink ref="D124" r:id="rId50" xr:uid="{40BEE53C-DE38-4343-BB74-B911C04B2A9D}"/>
     <hyperlink ref="D125" r:id="rId51" xr:uid="{E57BB641-C99E-4BB0-83B2-F27A0D920A58}"/>
+    <hyperlink ref="D126" r:id="rId52" xr:uid="{C8EA6F6D-7666-4BB2-95B5-7DF440F1805F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
